--- a/Jogos_do_Dia/2023-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -864,13 +864,13 @@
         <v>65</v>
       </c>
       <c r="F3">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G3">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -885,22 +885,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="N3">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -968,52 +968,52 @@
         <v>66</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>67</v>
       </c>
       <c r="F5">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="G5">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="H5">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -1093,10 +1093,10 @@
         <v>4.33</v>
       </c>
       <c r="M5">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>1.29</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1176,52 +1176,52 @@
         <v>68</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1280,13 +1280,13 @@
         <v>69</v>
       </c>
       <c r="F7">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="G7">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
-        <v>3.19</v>
+        <v>3.45</v>
       </c>
       <c r="I7">
         <v>1.04</v>
@@ -1301,10 +1301,10 @@
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
         <v>1.36</v>
@@ -1384,13 +1384,13 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>2.9</v>
+        <v>2.51</v>
       </c>
       <c r="G8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H8">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="I8">
         <v>1.04</v>
@@ -1405,10 +1405,10 @@
         <v>2.85</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O8">
         <v>1.47</v>
@@ -1488,13 +1488,13 @@
         <v>71</v>
       </c>
       <c r="F9">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="G9">
         <v>3.45</v>
       </c>
       <c r="H9">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="I9">
         <v>1.02</v>
@@ -1509,10 +1509,10 @@
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="O9">
         <v>1.42</v>
@@ -1592,13 +1592,13 @@
         <v>72</v>
       </c>
       <c r="F10">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="I10">
         <v>1.06</v>
@@ -1613,10 +1613,10 @@
         <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O10">
         <v>1.44</v>
@@ -1696,13 +1696,13 @@
         <v>73</v>
       </c>
       <c r="F11">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G11">
-        <v>5.87</v>
+        <v>5.6</v>
       </c>
       <c r="H11">
-        <v>10.94</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I11">
         <v>1.02</v>
@@ -1717,10 +1717,10 @@
         <v>4.5</v>
       </c>
       <c r="M11">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="N11">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
         <v>1.29</v>
@@ -1768,7 +1768,7 @@
         <v>5.65</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE11">
         <v>1.33</v>
@@ -1800,13 +1800,13 @@
         <v>74</v>
       </c>
       <c r="F12">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G12">
-        <v>3.73</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>5.11</v>
+        <v>4.1</v>
       </c>
       <c r="I12">
         <v>1.04</v>
@@ -1821,10 +1821,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="N12">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="O12">
         <v>1.36</v>
@@ -1872,7 +1872,7 @@
         <v>3.01</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE12">
         <v>1.32</v>
@@ -1904,13 +1904,13 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="G13">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="H13">
-        <v>3.78</v>
+        <v>3.15</v>
       </c>
       <c r="I13">
         <v>1.02</v>
@@ -1925,10 +1925,10 @@
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="N13">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O13">
         <v>1.41</v>
@@ -2008,13 +2008,13 @@
         <v>76</v>
       </c>
       <c r="F14">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G14">
-        <v>4.06</v>
+        <v>3.65</v>
       </c>
       <c r="H14">
-        <v>6.69</v>
+        <v>5.2</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2029,10 +2029,10 @@
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="N14">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="O14">
         <v>1.41</v>
@@ -2112,13 +2112,13 @@
         <v>77</v>
       </c>
       <c r="F15">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G15">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="H15">
-        <v>5.27</v>
+        <v>4.55</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -2133,10 +2133,10 @@
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="N15">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -2216,13 +2216,13 @@
         <v>78</v>
       </c>
       <c r="F16">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="G16">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H16">
-        <v>3.27</v>
+        <v>2.82</v>
       </c>
       <c r="I16">
         <v>1.1</v>
@@ -2240,7 +2240,7 @@
         <v>2.3</v>
       </c>
       <c r="N16">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O16">
         <v>1.51</v>
@@ -2320,13 +2320,13 @@
         <v>79</v>
       </c>
       <c r="F17">
-        <v>2.74</v>
+        <v>2.55</v>
       </c>
       <c r="G17">
         <v>3.15</v>
       </c>
       <c r="H17">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="I17">
         <v>1.11</v>
@@ -2341,10 +2341,10 @@
         <v>2.5</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O17">
         <v>1.52</v>
@@ -2424,13 +2424,13 @@
         <v>80</v>
       </c>
       <c r="F18">
-        <v>2.51</v>
+        <v>2.79</v>
       </c>
       <c r="G18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H18">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="I18">
         <v>1.06</v>
@@ -2445,10 +2445,10 @@
         <v>2.9</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O18">
         <v>1.46</v>
@@ -2528,13 +2528,13 @@
         <v>81</v>
       </c>
       <c r="F19">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="G19">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="H19">
-        <v>2.39</v>
+        <v>2.48</v>
       </c>
       <c r="I19">
         <v>1.06</v>
@@ -2549,10 +2549,10 @@
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="N19">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="O19">
         <v>1.4</v>
@@ -2600,10 +2600,10 @@
         <v>1.95</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF19">
         <v>1.57</v>
@@ -2632,13 +2632,13 @@
         <v>82</v>
       </c>
       <c r="F20">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="G20">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="H20">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="I20">
         <v>1.07</v>
@@ -2653,10 +2653,10 @@
         <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="N20">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O20">
         <v>1.45</v>
@@ -2736,13 +2736,13 @@
         <v>83</v>
       </c>
       <c r="F21">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="G21">
-        <v>4.12</v>
+        <v>3.9</v>
       </c>
       <c r="H21">
-        <v>5.67</v>
+        <v>5.5</v>
       </c>
       <c r="I21">
         <v>1.06</v>
@@ -2757,10 +2757,10 @@
         <v>3.37</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="O21">
         <v>1.4</v>
@@ -2840,13 +2840,13 @@
         <v>84</v>
       </c>
       <c r="F22">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G22">
         <v>4.7</v>
       </c>
       <c r="H22">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="I22">
         <v>1.04</v>
@@ -2861,10 +2861,10 @@
         <v>3.8</v>
       </c>
       <c r="M22">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="N22">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="O22">
         <v>1.33</v>
@@ -2944,13 +2944,13 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G23">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H23">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I23">
         <v>1.05</v>
@@ -2965,10 +2965,10 @@
         <v>3.7</v>
       </c>
       <c r="M23">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -808,10 +808,10 @@
         <v>1.98</v>
       </c>
       <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
         <v>2.33</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
       </c>
       <c r="X2">
         <v>1.52</v>
@@ -864,31 +864,31 @@
         <v>65</v>
       </c>
       <c r="F3">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>7.95</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N3">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="O3">
         <v>1.44</v>
@@ -903,13 +903,13 @@
         <v>1.57</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="V3">
         <v>2.11</v>
@@ -927,28 +927,28 @@
         <v>2.78</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -968,13 +968,13 @@
         <v>66</v>
       </c>
       <c r="F4">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="G4">
-        <v>4.33</v>
+        <v>5.15</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I4">
         <v>1.02</v>
@@ -1072,13 +1072,13 @@
         <v>67</v>
       </c>
       <c r="F5">
-        <v>5.75</v>
+        <v>6.85</v>
       </c>
       <c r="G5">
-        <v>4.1</v>
+        <v>4.63</v>
       </c>
       <c r="H5">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -1093,10 +1093,10 @@
         <v>4.33</v>
       </c>
       <c r="M5">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="O5">
         <v>1.29</v>
@@ -1176,13 +1176,13 @@
         <v>68</v>
       </c>
       <c r="F6">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="G6">
-        <v>4.1</v>
+        <v>3.87</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I6">
         <v>1.02</v>
@@ -1280,13 +1280,13 @@
         <v>69</v>
       </c>
       <c r="F7">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H7">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="I7">
         <v>1.04</v>
@@ -1301,10 +1301,10 @@
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
         <v>1.36</v>
@@ -1384,13 +1384,13 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="G8">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="H8">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="I8">
         <v>1.04</v>
@@ -1405,10 +1405,10 @@
         <v>2.85</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O8">
         <v>1.47</v>
@@ -1488,13 +1488,13 @@
         <v>71</v>
       </c>
       <c r="F9">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="G9">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="H9">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I9">
         <v>1.02</v>
@@ -1509,10 +1509,10 @@
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
         <v>1.42</v>
@@ -1592,13 +1592,13 @@
         <v>72</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="G10">
         <v>3.3</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
         <v>1.06</v>
@@ -1613,10 +1613,10 @@
         <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="O10">
         <v>1.44</v>
@@ -1696,13 +1696,13 @@
         <v>73</v>
       </c>
       <c r="F11">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="G11">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="H11">
-        <v>9.800000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="I11">
         <v>1.02</v>
@@ -1717,10 +1717,10 @@
         <v>4.5</v>
       </c>
       <c r="M11">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O11">
         <v>1.29</v>
@@ -1803,10 +1803,10 @@
         <v>1.75</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="H12">
-        <v>4.1</v>
+        <v>4.23</v>
       </c>
       <c r="I12">
         <v>1.04</v>
@@ -1821,10 +1821,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
         <v>1.36</v>
@@ -1904,13 +1904,13 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="G13">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H13">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
         <v>1.02</v>
@@ -1925,10 +1925,10 @@
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N13">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
         <v>1.41</v>
@@ -2008,13 +2008,13 @@
         <v>76</v>
       </c>
       <c r="F14">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="G14">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H14">
-        <v>5.2</v>
+        <v>6.35</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2029,10 +2029,10 @@
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O14">
         <v>1.41</v>
@@ -2112,13 +2112,13 @@
         <v>77</v>
       </c>
       <c r="F15">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="G15">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H15">
-        <v>4.55</v>
+        <v>5.8</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -2136,7 +2136,7 @@
         <v>1.95</v>
       </c>
       <c r="N15">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -2216,13 +2216,13 @@
         <v>78</v>
       </c>
       <c r="F16">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="G16">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="H16">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="I16">
         <v>1.1</v>
@@ -2240,7 +2240,7 @@
         <v>2.3</v>
       </c>
       <c r="N16">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O16">
         <v>1.51</v>
@@ -2320,13 +2320,13 @@
         <v>79</v>
       </c>
       <c r="F17">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G17">
-        <v>3.15</v>
+        <v>2.93</v>
       </c>
       <c r="H17">
-        <v>2.55</v>
+        <v>2.86</v>
       </c>
       <c r="I17">
         <v>1.11</v>
@@ -2341,10 +2341,10 @@
         <v>2.5</v>
       </c>
       <c r="M17">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
         <v>1.52</v>
@@ -2424,13 +2424,13 @@
         <v>80</v>
       </c>
       <c r="F18">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="G18">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="H18">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="I18">
         <v>1.06</v>
@@ -2445,10 +2445,10 @@
         <v>2.9</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="N18">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="O18">
         <v>1.46</v>
@@ -2528,13 +2528,13 @@
         <v>81</v>
       </c>
       <c r="F19">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="G19">
-        <v>3.45</v>
+        <v>3.27</v>
       </c>
       <c r="H19">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="I19">
         <v>1.06</v>
@@ -2549,10 +2549,10 @@
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="N19">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
         <v>1.4</v>
@@ -2632,13 +2632,13 @@
         <v>82</v>
       </c>
       <c r="F20">
-        <v>3.95</v>
+        <v>3.22</v>
       </c>
       <c r="G20">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H20">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="I20">
         <v>1.07</v>
@@ -2653,10 +2653,10 @@
         <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="N20">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="O20">
         <v>1.45</v>
@@ -2736,13 +2736,13 @@
         <v>83</v>
       </c>
       <c r="F21">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G21">
-        <v>3.9</v>
+        <v>4.02</v>
       </c>
       <c r="H21">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>1.06</v>
@@ -2757,10 +2757,10 @@
         <v>3.37</v>
       </c>
       <c r="M21">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="N21">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="O21">
         <v>1.4</v>
@@ -2840,13 +2840,13 @@
         <v>84</v>
       </c>
       <c r="F22">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="G22">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="H22">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>1.04</v>
@@ -2861,10 +2861,10 @@
         <v>3.8</v>
       </c>
       <c r="M22">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O22">
         <v>1.33</v>
@@ -2944,13 +2944,13 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="G23">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H23">
-        <v>4.3</v>
+        <v>4.03</v>
       </c>
       <c r="I23">
         <v>1.05</v>
@@ -2965,10 +2965,10 @@
         <v>3.7</v>
       </c>
       <c r="M23">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O23">
         <v>1.36</v>
